--- a/out/CE/FigA_25.xlsx
+++ b/out/CE/FigA_25.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFAF931-671C-4D4D-B58B-85E3FDB6FDA8}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.93074000000000001</v>
+        <v>0.90905999999999998</v>
       </c>
       <c r="B1">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="C1">
+        <v>0.91576000000000002</v>
+      </c>
+      <c r="D1">
+        <v>0.92327000000000004</v>
+      </c>
+      <c r="E1">
+        <v>0.92168000000000005</v>
+      </c>
+      <c r="F1">
+        <v>0.94352000000000003</v>
+      </c>
+      <c r="G1">
+        <v>0.91601999999999995</v>
+      </c>
+      <c r="H1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="I1">
+        <v>0.92408000000000001</v>
+      </c>
+      <c r="J1">
+        <v>0.92437999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="L1">
+        <v>0.91654000000000002</v>
+      </c>
+      <c r="M1">
+        <v>0.90934000000000004</v>
+      </c>
+      <c r="N1">
+        <v>0.92068000000000005</v>
+      </c>
+      <c r="O1">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="P1">
+        <v>0.92235999999999996</v>
+      </c>
+      <c r="Q1">
+        <v>0.92091999999999996</v>
+      </c>
+      <c r="R1">
+        <v>0.90747999999999995</v>
+      </c>
+      <c r="S1">
+        <v>0.91678000000000004</v>
+      </c>
+      <c r="T1">
+        <v>0.9163</v>
+      </c>
+      <c r="U1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="V1">
+        <v>0.93067</v>
+      </c>
+      <c r="W1">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="X1">
+        <v>0.91178000000000003</v>
+      </c>
+      <c r="Y1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="Z1">
+        <v>0.92101999999999995</v>
+      </c>
+      <c r="AA1">
+        <v>0.91988000000000003</v>
+      </c>
+      <c r="AB1">
+        <v>0.92591999999999997</v>
+      </c>
+      <c r="AC1">
+        <v>0.91483999999999999</v>
+      </c>
+      <c r="AD1">
+        <v>0.89842</v>
+      </c>
+      <c r="AE1">
+        <v>0.89324000000000003</v>
+      </c>
+      <c r="AF1">
+        <v>0.92915999999999999</v>
+      </c>
+      <c r="AG1">
+        <v>0.89607999999999999</v>
+      </c>
+      <c r="AH1">
+        <v>0.91069</v>
+      </c>
+      <c r="AI1">
+        <v>0.91032000000000002</v>
+      </c>
+      <c r="AJ1">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="AK1">
+        <v>0.93237999999999999</v>
+      </c>
+      <c r="AL1">
+        <v>0.90913999999999995</v>
+      </c>
+      <c r="AM1">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="AN1">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="AO1">
+        <v>0.90115999999999996</v>
+      </c>
+      <c r="AP1">
+        <v>0.91996</v>
+      </c>
+      <c r="AQ1">
+        <v>0.91835999999999995</v>
+      </c>
+      <c r="AR1">
+        <v>0.90991999999999995</v>
+      </c>
+      <c r="AS1">
+        <v>0.92296</v>
+      </c>
+      <c r="AT1">
+        <v>0.91322000000000003</v>
+      </c>
+      <c r="AU1">
+        <v>0.90971999999999997</v>
+      </c>
+      <c r="AV1">
+        <v>0.91117999999999999</v>
+      </c>
+      <c r="AW1">
+        <v>0.92315999999999998</v>
+      </c>
+      <c r="AX1">
+        <v>0.91376000000000002</v>
+      </c>
+      <c r="AY1">
+        <v>0.91825999999999997</v>
+      </c>
+      <c r="AZ1">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="BA1">
+        <v>0.90146000000000004</v>
+      </c>
+      <c r="BB1">
+        <v>0.92144000000000004</v>
+      </c>
+      <c r="BC1">
+        <v>0.92101999999999995</v>
+      </c>
+      <c r="BD1">
+        <v>0.92001999999999995</v>
+      </c>
+      <c r="BE1">
+        <v>0.92096</v>
+      </c>
+      <c r="BF1">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="BG1">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="BH1">
+        <v>0.93562000000000001</v>
+      </c>
+      <c r="BI1">
+        <v>0.89793999999999996</v>
+      </c>
+      <c r="BJ1">
+        <v>0.90732000000000002</v>
+      </c>
+      <c r="BK1">
+        <v>0.91412000000000004</v>
+      </c>
+      <c r="BL1">
+        <v>0.90471999999999997</v>
+      </c>
+      <c r="BM1">
+        <v>0.91252</v>
+      </c>
+      <c r="BN1">
+        <v>0.91276000000000002</v>
+      </c>
+      <c r="BO1">
+        <v>0.92181999999999997</v>
+      </c>
+      <c r="BP1">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="BQ1">
+        <v>0.90278000000000003</v>
+      </c>
+      <c r="BR1">
+        <v>0.91052</v>
+      </c>
+      <c r="BS1">
+        <v>0.91937999999999998</v>
+      </c>
+      <c r="BT1">
+        <v>0.89061999999999997</v>
+      </c>
+      <c r="BU1">
+        <v>0.89993999999999996</v>
+      </c>
+      <c r="BV1">
+        <v>0.90314000000000005</v>
+      </c>
+      <c r="BW1">
+        <v>0.92161999999999999</v>
+      </c>
+      <c r="BX1">
+        <v>0.92367999999999995</v>
+      </c>
+      <c r="BY1">
+        <v>0.93023</v>
+      </c>
+      <c r="BZ1">
+        <v>0.91637999999999997</v>
+      </c>
+      <c r="CA1">
+        <v>0.91252</v>
+      </c>
+      <c r="CB1">
+        <v>0.91664000000000001</v>
+      </c>
+      <c r="CC1">
+        <v>0.91327999999999998</v>
+      </c>
+      <c r="CD1">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="CE1">
+        <v>0.89868000000000003</v>
+      </c>
+      <c r="CF1">
+        <v>0.90661000000000003</v>
+      </c>
+      <c r="CG1">
+        <v>0.92978000000000005</v>
+      </c>
+      <c r="CH1">
+        <v>0.92376000000000003</v>
+      </c>
+      <c r="CI1">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="CJ1">
+        <v>0.91207000000000005</v>
+      </c>
+      <c r="CK1">
+        <v>0.93145</v>
+      </c>
+      <c r="CL1">
+        <v>0.91132000000000002</v>
+      </c>
+      <c r="CM1">
+        <v>0.92891999999999997</v>
+      </c>
+      <c r="CN1">
+        <v>0.89661999999999997</v>
+      </c>
+      <c r="CO1">
+        <v>0.92671999999999999</v>
+      </c>
+      <c r="CP1">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="CQ1">
+        <v>0.92181999999999997</v>
+      </c>
+      <c r="CR1">
+        <v>0.91398000000000001</v>
+      </c>
+      <c r="CS1">
+        <v>0.90046000000000004</v>
+      </c>
+      <c r="CT1">
+        <v>0.91147999999999996</v>
+      </c>
+      <c r="CU1">
+        <v>0.90122999999999998</v>
+      </c>
+      <c r="CV1">
+        <v>0.91422000000000003</v>
+      </c>
+      <c r="CW1">
+        <v>0.91516639999999982</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.91242000000000001</v>
+      </c>
+      <c r="B2">
+        <v>0.92603999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.92271999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.90656000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.91005000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.93911999999999995</v>
+      </c>
+      <c r="G2">
+        <v>0.91734000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.89971999999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.91261999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.92964000000000002</v>
+      </c>
+      <c r="L2">
+        <v>0.92130999999999996</v>
+      </c>
+      <c r="M2">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0.92898000000000003</v>
+      </c>
+      <c r="O2">
+        <v>0.92906</v>
+      </c>
+      <c r="P2">
+        <v>0.91766000000000003</v>
+      </c>
+      <c r="Q2">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0.91574</v>
+      </c>
+      <c r="S2">
+        <v>0.93881999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.92132000000000003</v>
+      </c>
+      <c r="U2">
+        <v>0.92308000000000001</v>
+      </c>
+      <c r="V2">
+        <v>0.91083999999999998</v>
+      </c>
+      <c r="W2">
+        <v>0.92486999999999997</v>
+      </c>
+      <c r="X2">
+        <v>0.90449000000000002</v>
+      </c>
+      <c r="Y2">
+        <v>0.91610999999999998</v>
+      </c>
+      <c r="Z2">
+        <v>0.90754999999999997</v>
+      </c>
+      <c r="AA2">
+        <v>0.92898000000000003</v>
+      </c>
+      <c r="AB2">
+        <v>0.89731000000000005</v>
+      </c>
+      <c r="AC2">
+        <v>0.92137999999999998</v>
+      </c>
+      <c r="AD2">
+        <v>0.9214</v>
+      </c>
+      <c r="AE2">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="AF2">
+        <v>0.92844000000000004</v>
+      </c>
+      <c r="AG2">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="AH2">
+        <v>0.91791999999999996</v>
+      </c>
+      <c r="AI2">
+        <v>0.89781</v>
+      </c>
+      <c r="AJ2">
+        <v>0.92342000000000002</v>
+      </c>
+      <c r="AK2">
+        <v>0.90725999999999996</v>
+      </c>
+      <c r="AL2">
+        <v>0.92301999999999995</v>
+      </c>
+      <c r="AM2">
+        <v>0.92556000000000005</v>
+      </c>
+      <c r="AN2">
+        <v>0.91988000000000003</v>
+      </c>
+      <c r="AO2">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="AP2">
+        <v>0.90956000000000004</v>
+      </c>
+      <c r="AQ2">
+        <v>0.91927999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="AS2">
+        <v>0.92957999999999996</v>
+      </c>
+      <c r="AT2">
+        <v>0.93056000000000005</v>
+      </c>
+      <c r="AU2">
+        <v>0.90097000000000005</v>
+      </c>
+      <c r="AV2">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="AW2">
+        <v>0.91744000000000003</v>
+      </c>
+      <c r="AX2">
+        <v>0.90827000000000002</v>
+      </c>
+      <c r="AY2">
+        <v>0.93367999999999995</v>
+      </c>
+      <c r="AZ2">
+        <v>0.92286000000000001</v>
+      </c>
+      <c r="BA2">
+        <v>0.92267999999999994</v>
+      </c>
+      <c r="BB2">
+        <v>0.92044000000000004</v>
+      </c>
+      <c r="BC2">
+        <v>0.92962</v>
+      </c>
+      <c r="BD2">
+        <v>0.92137999999999998</v>
+      </c>
+      <c r="BE2">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="BF2">
+        <v>0.92137999999999998</v>
+      </c>
+      <c r="BG2">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="BH2">
+        <v>0.93057999999999996</v>
+      </c>
+      <c r="BI2">
+        <v>0.91408</v>
+      </c>
+      <c r="BJ2">
+        <v>0.90859000000000001</v>
+      </c>
+      <c r="BK2">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="BL2">
+        <v>0.91034000000000004</v>
+      </c>
+      <c r="BM2">
+        <v>0.92525000000000002</v>
+      </c>
+      <c r="BN2">
+        <v>0.93076000000000003</v>
+      </c>
+      <c r="BO2">
+        <v>0.91986000000000001</v>
+      </c>
+      <c r="BP2">
+        <v>0.93374000000000001</v>
+      </c>
+      <c r="BQ2">
+        <v>0.92115999999999998</v>
+      </c>
+      <c r="BR2">
+        <v>0.9153</v>
+      </c>
+      <c r="BS2">
+        <v>0.9274</v>
+      </c>
+      <c r="BT2">
+        <v>0.92298000000000002</v>
+      </c>
+      <c r="BU2">
+        <v>0.91647999999999996</v>
+      </c>
+      <c r="BV2">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="BW2">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="BX2">
+        <v>0.91812000000000005</v>
+      </c>
+      <c r="BY2">
+        <v>0.92303999999999997</v>
+      </c>
+      <c r="BZ2">
+        <v>0.91676000000000002</v>
+      </c>
+      <c r="CA2">
+        <v>0.89914000000000005</v>
+      </c>
+      <c r="CB2">
+        <v>0.91202000000000005</v>
+      </c>
+      <c r="CC2">
+        <v>0.93033999999999994</v>
+      </c>
+      <c r="CD2">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="CE2">
+        <v>0.91225999999999996</v>
+      </c>
+      <c r="CF2">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="CH2">
+        <v>0.91573000000000004</v>
+      </c>
+      <c r="CI2">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="CJ2">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="CK2">
+        <v>0.91922000000000004</v>
+      </c>
+      <c r="CL2">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="CM2">
+        <v>0.92168000000000005</v>
+      </c>
+      <c r="CN2">
+        <v>0.92293999999999998</v>
+      </c>
+      <c r="CO2">
+        <v>0.90917999999999999</v>
+      </c>
+      <c r="CP2">
+        <v>0.91247</v>
+      </c>
+      <c r="CQ2">
+        <v>0.91317999999999999</v>
+      </c>
+      <c r="CR2">
+        <v>0.90788000000000002</v>
+      </c>
+      <c r="CS2">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="CT2">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="CU2">
+        <v>0.91610999999999998</v>
+      </c>
+      <c r="CV2">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="CW2">
+        <v>0.91811029999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.92932000000000003</v>
+      </c>
+      <c r="B3">
+        <v>0.92112000000000005</v>
+      </c>
+      <c r="C3">
+        <v>0.91449000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.90727999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.90061999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.90773999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.90703999999999996</v>
+      </c>
+      <c r="J3">
+        <v>0.92493999999999998</v>
+      </c>
+      <c r="K3">
+        <v>0.91966000000000003</v>
+      </c>
+      <c r="L3">
+        <v>0.90495999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.90451999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.91274</v>
+      </c>
+      <c r="O3">
+        <v>0.92052</v>
+      </c>
+      <c r="P3">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="Q3">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="R3">
+        <v>0.90286</v>
+      </c>
+      <c r="S3">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="T3">
+        <v>0.91098000000000001</v>
+      </c>
+      <c r="U3">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="V3">
+        <v>0.91908000000000001</v>
+      </c>
+      <c r="W3">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="X3">
+        <v>0.90495000000000003</v>
+      </c>
+      <c r="Y3">
+        <v>0.92127999999999999</v>
+      </c>
+      <c r="Z3">
+        <v>0.92125999999999997</v>
+      </c>
+      <c r="AA3">
+        <v>0.92034000000000005</v>
+      </c>
+      <c r="AB3">
+        <v>0.92244000000000004</v>
+      </c>
+      <c r="AC3">
+        <v>0.92466000000000004</v>
+      </c>
+      <c r="AD3">
+        <v>0.92518</v>
+      </c>
+      <c r="AE3">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="AF3">
+        <v>0.92076000000000002</v>
+      </c>
+      <c r="AG3">
+        <v>0.9274</v>
+      </c>
+      <c r="AH3">
+        <v>0.91486000000000001</v>
+      </c>
+      <c r="AI3">
+        <v>0.9254</v>
+      </c>
+      <c r="AJ3">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.92474000000000001</v>
+      </c>
+      <c r="AL3">
+        <v>0.91415999999999997</v>
+      </c>
+      <c r="AM3">
+        <v>0.92123999999999995</v>
+      </c>
+      <c r="AN3">
+        <v>0.91915999999999998</v>
+      </c>
+      <c r="AO3">
+        <v>0.91803000000000001</v>
+      </c>
+      <c r="AP3">
+        <v>0.92691999999999997</v>
+      </c>
+      <c r="AQ3">
+        <v>0.91878000000000004</v>
+      </c>
+      <c r="AR3">
+        <v>0.91305999999999998</v>
+      </c>
+      <c r="AS3">
+        <v>0.91227999999999998</v>
+      </c>
+      <c r="AT3">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="AU3">
+        <v>0.91435999999999995</v>
+      </c>
+      <c r="AV3">
+        <v>0.92444000000000004</v>
+      </c>
+      <c r="AW3">
+        <v>0.91515999999999997</v>
+      </c>
+      <c r="AX3">
+        <v>0.92327999999999999</v>
+      </c>
+      <c r="AY3">
+        <v>0.91747999999999996</v>
+      </c>
+      <c r="AZ3">
+        <v>0.92605999999999999</v>
+      </c>
+      <c r="BA3">
+        <v>0.91925999999999997</v>
+      </c>
+      <c r="BB3">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="BC3">
+        <v>0.92844000000000004</v>
+      </c>
+      <c r="BD3">
+        <v>0.91561999999999999</v>
+      </c>
+      <c r="BE3">
+        <v>0.90781999999999996</v>
+      </c>
+      <c r="BF3">
+        <v>0.90576999999999996</v>
+      </c>
+      <c r="BG3">
+        <v>0.91747000000000001</v>
+      </c>
+      <c r="BH3">
+        <v>0.92878000000000005</v>
+      </c>
+      <c r="BI3">
+        <v>0.91513999999999995</v>
+      </c>
+      <c r="BJ3">
+        <v>0.91078000000000003</v>
+      </c>
+      <c r="BK3">
+        <v>0.90093999999999996</v>
+      </c>
+      <c r="BL3">
+        <v>0.91008999999999995</v>
+      </c>
+      <c r="BM3">
+        <v>0.91478000000000004</v>
+      </c>
+      <c r="BN3">
+        <v>0.91557999999999995</v>
+      </c>
+      <c r="BO3">
+        <v>0.92364000000000002</v>
+      </c>
+      <c r="BP3">
+        <v>0.91593999999999998</v>
+      </c>
+      <c r="BQ3">
+        <v>0.92142000000000002</v>
+      </c>
+      <c r="BR3">
+        <v>0.92303000000000002</v>
+      </c>
+      <c r="BS3">
+        <v>0.91571999999999998</v>
+      </c>
+      <c r="BT3">
+        <v>0.92037999999999998</v>
+      </c>
+      <c r="BU3">
+        <v>0.91237999999999997</v>
+      </c>
+      <c r="BV3">
+        <v>0.91217999999999999</v>
+      </c>
+      <c r="BW3">
+        <v>0.91557999999999995</v>
+      </c>
+      <c r="BX3">
+        <v>0.91874</v>
+      </c>
+      <c r="BY3">
+        <v>0.90786</v>
+      </c>
+      <c r="BZ3">
+        <v>0.92878000000000005</v>
+      </c>
+      <c r="CA3">
+        <v>0.91842000000000001</v>
+      </c>
+      <c r="CB3">
+        <v>0.92218</v>
+      </c>
+      <c r="CC3">
+        <v>0.89947999999999995</v>
+      </c>
+      <c r="CD3">
+        <v>0.91956000000000004</v>
+      </c>
+      <c r="CE3">
         <v>0.90290999999999999</v>
       </c>
-      <c r="C1">
-        <v>0.916825</v>
+      <c r="CF3">
+        <v>0.91666000000000003</v>
+      </c>
+      <c r="CG3">
+        <v>0.91766000000000003</v>
+      </c>
+      <c r="CH3">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="CI3">
+        <v>0.91320999999999997</v>
+      </c>
+      <c r="CJ3">
+        <v>0.91644000000000003</v>
+      </c>
+      <c r="CK3">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="CL3">
+        <v>0.89368000000000003</v>
+      </c>
+      <c r="CM3">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="CN3">
+        <v>0.91798000000000002</v>
+      </c>
+      <c r="CO3">
+        <v>0.91934000000000005</v>
+      </c>
+      <c r="CP3">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="CQ3">
+        <v>0.91835999999999995</v>
+      </c>
+      <c r="CR3">
+        <v>0.91798000000000002</v>
+      </c>
+      <c r="CS3">
+        <v>0.90942999999999996</v>
+      </c>
+      <c r="CT3">
+        <v>0.90949000000000002</v>
+      </c>
+      <c r="CU3">
+        <v>0.90046000000000004</v>
+      </c>
+      <c r="CV3">
+        <v>0.92247999999999997</v>
+      </c>
+      <c r="CW3">
+        <v>0.91628510000000007</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.93188000000000004</v>
-      </c>
-      <c r="B2">
-        <v>0.92323999999999995</v>
-      </c>
-      <c r="C2">
-        <v>0.92755999999999994</v>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.92398000000000002</v>
+      </c>
+      <c r="B4">
+        <v>0.91764000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.91915000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.92188000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.91408999999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.91044000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.91461999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.91183999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.91424000000000005</v>
+      </c>
+      <c r="J4">
+        <v>0.90351000000000004</v>
+      </c>
+      <c r="K4">
+        <v>0.89761000000000002</v>
+      </c>
+      <c r="L4">
+        <v>0.90571999999999997</v>
+      </c>
+      <c r="M4">
+        <v>0.91242000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.91564000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.92262</v>
+      </c>
+      <c r="P4">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.92447999999999997</v>
+      </c>
+      <c r="R4">
+        <v>0.92315999999999998</v>
+      </c>
+      <c r="S4">
+        <v>0.93250999999999995</v>
+      </c>
+      <c r="T4">
+        <v>0.90944000000000003</v>
+      </c>
+      <c r="U4">
+        <v>0.90261000000000002</v>
+      </c>
+      <c r="V4">
+        <v>0.90915999999999997</v>
+      </c>
+      <c r="W4">
+        <v>0.92598000000000003</v>
+      </c>
+      <c r="X4">
+        <v>0.92727999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>0.90266000000000002</v>
+      </c>
+      <c r="Z4">
+        <v>0.91442000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>0.92276000000000002</v>
+      </c>
+      <c r="AB4">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="AC4">
+        <v>0.92347999999999997</v>
+      </c>
+      <c r="AD4">
+        <v>0.91756000000000004</v>
+      </c>
+      <c r="AE4">
+        <v>0.92113</v>
+      </c>
+      <c r="AF4">
+        <v>0.91990000000000005</v>
+      </c>
+      <c r="AG4">
+        <v>0.92501999999999995</v>
+      </c>
+      <c r="AH4">
+        <v>0.91324000000000005</v>
+      </c>
+      <c r="AI4">
+        <v>0.92288000000000003</v>
+      </c>
+      <c r="AJ4">
+        <v>0.91978000000000004</v>
+      </c>
+      <c r="AK4">
+        <v>0.92798000000000003</v>
+      </c>
+      <c r="AL4">
+        <v>0.92293000000000003</v>
+      </c>
+      <c r="AM4">
+        <v>0.91703999999999997</v>
+      </c>
+      <c r="AN4">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="AO4">
+        <v>0.90351000000000004</v>
+      </c>
+      <c r="AP4">
+        <v>0.90388999999999997</v>
+      </c>
+      <c r="AQ4">
+        <v>0.91222000000000003</v>
+      </c>
+      <c r="AR4">
+        <v>0.93476999999999999</v>
+      </c>
+      <c r="AS4">
+        <v>0.91844000000000003</v>
+      </c>
+      <c r="AT4">
+        <v>0.92432000000000003</v>
+      </c>
+      <c r="AU4">
+        <v>0.90664</v>
+      </c>
+      <c r="AV4">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="AW4">
+        <v>0.91</v>
+      </c>
+      <c r="AX4">
+        <v>0.90783999999999998</v>
+      </c>
+      <c r="AY4">
+        <v>0.90988000000000002</v>
+      </c>
+      <c r="AZ4">
+        <v>0.92612000000000005</v>
+      </c>
+      <c r="BA4">
+        <v>0.91274</v>
+      </c>
+      <c r="BB4">
+        <v>0.91724000000000006</v>
+      </c>
+      <c r="BC4">
+        <v>0.92362</v>
+      </c>
+      <c r="BD4">
+        <v>0.91754000000000002</v>
+      </c>
+      <c r="BE4">
+        <v>0.9204</v>
+      </c>
+      <c r="BF4">
+        <v>0.90712000000000004</v>
+      </c>
+      <c r="BG4">
+        <v>0.92603000000000002</v>
+      </c>
+      <c r="BH4">
+        <v>0.92632000000000003</v>
+      </c>
+      <c r="BI4">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="BJ4">
+        <v>0.91225999999999996</v>
+      </c>
+      <c r="BK4">
+        <v>0.93842000000000003</v>
+      </c>
+      <c r="BL4">
+        <v>0.92371999999999999</v>
+      </c>
+      <c r="BM4">
+        <v>0.91627999999999998</v>
+      </c>
+      <c r="BN4">
+        <v>0.89265000000000005</v>
+      </c>
+      <c r="BO4">
+        <v>0.9244</v>
+      </c>
+      <c r="BP4">
+        <v>0.92693999999999999</v>
+      </c>
+      <c r="BQ4">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="BR4">
+        <v>0.91366000000000003</v>
+      </c>
+      <c r="BS4">
+        <v>0.90861000000000003</v>
+      </c>
+      <c r="BT4">
+        <v>0.89693999999999996</v>
+      </c>
+      <c r="BU4">
+        <v>0.92374000000000001</v>
+      </c>
+      <c r="BV4">
+        <v>0.90825999999999996</v>
+      </c>
+      <c r="BW4">
+        <v>0.92532000000000003</v>
+      </c>
+      <c r="BX4">
+        <v>0.90813999999999995</v>
+      </c>
+      <c r="BY4">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="BZ4">
+        <v>0.92811999999999995</v>
+      </c>
+      <c r="CA4">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="CB4">
+        <v>0.90237000000000001</v>
+      </c>
+      <c r="CC4">
+        <v>0.92727999999999999</v>
+      </c>
+      <c r="CD4">
+        <v>0.90444000000000002</v>
+      </c>
+      <c r="CE4">
+        <v>0.92852000000000001</v>
+      </c>
+      <c r="CF4">
+        <v>0.9254</v>
+      </c>
+      <c r="CG4">
+        <v>0.90481999999999996</v>
+      </c>
+      <c r="CH4">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="CI4">
+        <v>0.91247999999999996</v>
+      </c>
+      <c r="CJ4">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="CK4">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="CL4">
+        <v>0.91796</v>
+      </c>
+      <c r="CM4">
+        <v>0.92256000000000005</v>
+      </c>
+      <c r="CN4">
+        <v>0.93222000000000005</v>
+      </c>
+      <c r="CO4">
+        <v>0.92088999999999999</v>
+      </c>
+      <c r="CP4">
+        <v>0.91515999999999997</v>
+      </c>
+      <c r="CQ4">
+        <v>0.92183999999999999</v>
+      </c>
+      <c r="CR4">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="CS4">
+        <v>0.92374000000000001</v>
+      </c>
+      <c r="CT4">
+        <v>0.91193999999999997</v>
+      </c>
+      <c r="CU4">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="CV4">
+        <v>0.91178999999999999</v>
+      </c>
+      <c r="CW4">
+        <v>0.91685609999999984</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.91388000000000003</v>
-      </c>
-      <c r="B3">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="C3">
-        <v>0.91639000000000004</v>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="B5">
+        <v>0.92271999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.90634000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.90805999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.90122999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.90237000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.92891999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.91583999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.93093999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.89871999999999996</v>
+      </c>
+      <c r="K5">
+        <v>0.91391999999999995</v>
+      </c>
+      <c r="L5">
+        <v>0.91735</v>
+      </c>
+      <c r="M5">
+        <v>0.90358000000000005</v>
+      </c>
+      <c r="N5">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.90695999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.91942000000000002</v>
+      </c>
+      <c r="R5">
+        <v>0.8992</v>
+      </c>
+      <c r="S5">
+        <v>0.92466000000000004</v>
+      </c>
+      <c r="T5">
+        <v>0.92345999999999995</v>
+      </c>
+      <c r="U5">
+        <v>0.91002000000000005</v>
+      </c>
+      <c r="V5">
+        <v>0.90732000000000002</v>
+      </c>
+      <c r="W5">
+        <v>0.92357999999999996</v>
+      </c>
+      <c r="X5">
+        <v>0.90776999999999997</v>
+      </c>
+      <c r="Y5">
+        <v>0.92208000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="AA5">
+        <v>0.91966000000000003</v>
+      </c>
+      <c r="AB5">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="AC5">
+        <v>0.92235999999999996</v>
+      </c>
+      <c r="AD5">
+        <v>0.90858000000000005</v>
+      </c>
+      <c r="AE5">
+        <v>0.91337999999999997</v>
+      </c>
+      <c r="AF5">
+        <v>0.91742999999999997</v>
+      </c>
+      <c r="AG5">
+        <v>0.91381999999999997</v>
+      </c>
+      <c r="AH5">
+        <v>0.9204</v>
+      </c>
+      <c r="AI5">
+        <v>0.92105999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.91393999999999997</v>
+      </c>
+      <c r="AK5">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="AL5">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="AM5">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="AN5">
+        <v>0.89824000000000004</v>
+      </c>
+      <c r="AO5">
+        <v>0.92352000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="AQ5">
+        <v>0.92327999999999999</v>
+      </c>
+      <c r="AR5">
+        <v>0.91874</v>
+      </c>
+      <c r="AS5">
+        <v>0.91842999999999997</v>
+      </c>
+      <c r="AT5">
+        <v>0.90661999999999998</v>
+      </c>
+      <c r="AU5">
+        <v>0.92662</v>
+      </c>
+      <c r="AV5">
+        <v>0.92339000000000004</v>
+      </c>
+      <c r="AW5">
+        <v>0.92057999999999995</v>
+      </c>
+      <c r="AX5">
+        <v>0.92608000000000001</v>
+      </c>
+      <c r="AY5">
+        <v>0.92762</v>
+      </c>
+      <c r="AZ5">
+        <v>0.91776999999999997</v>
+      </c>
+      <c r="BA5">
+        <v>0.91266999999999998</v>
+      </c>
+      <c r="BB5">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="BC5">
+        <v>0.89236000000000004</v>
+      </c>
+      <c r="BD5">
+        <v>0.90103999999999995</v>
+      </c>
+      <c r="BE5">
+        <v>0.91068000000000005</v>
+      </c>
+      <c r="BF5">
+        <v>0.92012000000000005</v>
+      </c>
+      <c r="BG5">
+        <v>0.91571999999999998</v>
+      </c>
+      <c r="BH5">
+        <v>0.92122000000000004</v>
+      </c>
+      <c r="BI5">
+        <v>0.90815999999999997</v>
+      </c>
+      <c r="BJ5">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="BK5">
+        <v>0.93628</v>
+      </c>
+      <c r="BL5">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="BM5">
+        <v>0.91984999999999995</v>
+      </c>
+      <c r="BN5">
+        <v>0.90222000000000002</v>
+      </c>
+      <c r="BO5">
+        <v>0.92676000000000003</v>
+      </c>
+      <c r="BP5">
+        <v>0.91898000000000002</v>
+      </c>
+      <c r="BQ5">
+        <v>0.92745999999999995</v>
+      </c>
+      <c r="BR5">
+        <v>0.90664</v>
+      </c>
+      <c r="BS5">
+        <v>0.91003999999999996</v>
+      </c>
+      <c r="BT5">
+        <v>0.92625999999999997</v>
+      </c>
+      <c r="BU5">
+        <v>0.90215000000000001</v>
+      </c>
+      <c r="BV5">
+        <v>0.91047999999999996</v>
+      </c>
+      <c r="BW5">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="BX5">
+        <v>0.91861999999999999</v>
+      </c>
+      <c r="BY5">
+        <v>0.91168000000000005</v>
+      </c>
+      <c r="BZ5">
+        <v>0.91215999999999997</v>
+      </c>
+      <c r="CA5">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="CB5">
+        <v>0.93018000000000001</v>
+      </c>
+      <c r="CC5">
+        <v>0.92922000000000005</v>
+      </c>
+      <c r="CD5">
+        <v>0.92081999999999997</v>
+      </c>
+      <c r="CE5">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="CF5">
+        <v>0.91864000000000001</v>
+      </c>
+      <c r="CG5">
+        <v>0.90715999999999997</v>
+      </c>
+      <c r="CH5">
+        <v>0.9153</v>
+      </c>
+      <c r="CI5">
+        <v>0.90788999999999997</v>
+      </c>
+      <c r="CJ5">
+        <v>0.92174</v>
+      </c>
+      <c r="CK5">
+        <v>0.90888999999999998</v>
+      </c>
+      <c r="CL5">
+        <v>0.91078000000000003</v>
+      </c>
+      <c r="CM5">
+        <v>0.91576000000000002</v>
+      </c>
+      <c r="CN5">
+        <v>0.90652999999999995</v>
+      </c>
+      <c r="CO5">
+        <v>0.91693999999999998</v>
+      </c>
+      <c r="CP5">
+        <v>0.90258000000000005</v>
+      </c>
+      <c r="CQ5">
+        <v>0.91413999999999995</v>
+      </c>
+      <c r="CR5">
+        <v>0.92093999999999998</v>
+      </c>
+      <c r="CS5">
+        <v>0.90603</v>
+      </c>
+      <c r="CT5">
+        <v>0.92862</v>
+      </c>
+      <c r="CU5">
+        <v>0.91344000000000003</v>
+      </c>
+      <c r="CV5">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="CW5">
+        <v>0.91561729999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.90815999999999997</v>
-      </c>
-      <c r="B4">
-        <v>0.92593999999999999</v>
-      </c>
-      <c r="C4">
-        <v>0.91704999999999992</v>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.9284</v>
+      </c>
+      <c r="B6">
+        <v>0.9234</v>
+      </c>
+      <c r="C6">
+        <v>0.92701999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.91452</v>
+      </c>
+      <c r="E6">
+        <v>0.93115999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.92979000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.92635999999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.90024999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="J6">
+        <v>0.90991999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.91846000000000005</v>
+      </c>
+      <c r="L6">
+        <v>0.91281999999999996</v>
+      </c>
+      <c r="M6">
+        <v>0.90042</v>
+      </c>
+      <c r="N6">
+        <v>0.91847999999999996</v>
+      </c>
+      <c r="O6">
+        <v>0.93052000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.91864000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.92125999999999997</v>
+      </c>
+      <c r="R6">
+        <v>0.92547999999999997</v>
+      </c>
+      <c r="S6">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="T6">
+        <v>0.91778999999999999</v>
+      </c>
+      <c r="U6">
+        <v>0.91908000000000001</v>
+      </c>
+      <c r="V6">
+        <v>0.91166000000000003</v>
+      </c>
+      <c r="W6">
+        <v>0.91578000000000004</v>
+      </c>
+      <c r="X6">
+        <v>0.93596000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>0.91747999999999996</v>
+      </c>
+      <c r="Z6">
+        <v>0.93142000000000003</v>
+      </c>
+      <c r="AA6">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>0.90878000000000003</v>
+      </c>
+      <c r="AC6">
+        <v>0.90998000000000001</v>
+      </c>
+      <c r="AD6">
+        <v>0.92791999999999997</v>
+      </c>
+      <c r="AE6">
+        <v>0.92352000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>0.92147999999999997</v>
+      </c>
+      <c r="AG6">
+        <v>0.91424000000000005</v>
+      </c>
+      <c r="AH6">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="AI6">
+        <v>0.92164000000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>0.89315</v>
+      </c>
+      <c r="AK6">
+        <v>0.93213999999999997</v>
+      </c>
+      <c r="AL6">
+        <v>0.91778000000000004</v>
+      </c>
+      <c r="AM6">
+        <v>0.89937999999999996</v>
+      </c>
+      <c r="AN6">
+        <v>0.90825999999999996</v>
+      </c>
+      <c r="AO6">
+        <v>0.91561000000000003</v>
+      </c>
+      <c r="AP6">
+        <v>0.93115999999999999</v>
+      </c>
+      <c r="AQ6">
+        <v>0.92134000000000005</v>
+      </c>
+      <c r="AR6">
+        <v>0.92301999999999995</v>
+      </c>
+      <c r="AS6">
+        <v>0.91027999999999998</v>
+      </c>
+      <c r="AT6">
+        <v>0.91713999999999996</v>
+      </c>
+      <c r="AU6">
+        <v>0.91332000000000002</v>
+      </c>
+      <c r="AV6">
+        <v>0.92657999999999996</v>
+      </c>
+      <c r="AW6">
+        <v>0.92825999999999997</v>
+      </c>
+      <c r="AX6">
+        <v>0.92074</v>
+      </c>
+      <c r="AY6">
+        <v>0.91256999999999999</v>
+      </c>
+      <c r="AZ6">
+        <v>0.91991999999999996</v>
+      </c>
+      <c r="BA6">
+        <v>0.92608000000000001</v>
+      </c>
+      <c r="BB6">
+        <v>0.91854999999999998</v>
+      </c>
+      <c r="BC6">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="BD6">
+        <v>0.92301999999999995</v>
+      </c>
+      <c r="BE6">
+        <v>0.89842</v>
+      </c>
+      <c r="BF6">
+        <v>0.92498000000000002</v>
+      </c>
+      <c r="BG6">
+        <v>0.92156000000000005</v>
+      </c>
+      <c r="BH6">
+        <v>0.93042000000000002</v>
+      </c>
+      <c r="BI6">
+        <v>0.91632000000000002</v>
+      </c>
+      <c r="BJ6">
+        <v>0.91976000000000002</v>
+      </c>
+      <c r="BK6">
+        <v>0.92156000000000005</v>
+      </c>
+      <c r="BL6">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="BM6">
+        <v>0.92796000000000001</v>
+      </c>
+      <c r="BN6">
+        <v>0.92515999999999998</v>
+      </c>
+      <c r="BO6">
+        <v>0.91471999999999998</v>
+      </c>
+      <c r="BP6">
+        <v>0.91886000000000001</v>
+      </c>
+      <c r="BQ6">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="BR6">
+        <v>0.92101999999999995</v>
+      </c>
+      <c r="BS6">
+        <v>0.91693999999999998</v>
+      </c>
+      <c r="BT6">
+        <v>0.93611999999999995</v>
+      </c>
+      <c r="BU6">
+        <v>0.91056000000000004</v>
+      </c>
+      <c r="BV6">
+        <v>0.91252</v>
+      </c>
+      <c r="BW6">
+        <v>0.92325999999999997</v>
+      </c>
+      <c r="BX6">
+        <v>0.91471999999999998</v>
+      </c>
+      <c r="BY6">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="BZ6">
+        <v>0.9244</v>
+      </c>
+      <c r="CA6">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="CB6">
+        <v>0.92347999999999997</v>
+      </c>
+      <c r="CC6">
+        <v>0.93278000000000005</v>
+      </c>
+      <c r="CD6">
+        <v>0.92276000000000002</v>
+      </c>
+      <c r="CE6">
+        <v>0.91391999999999995</v>
+      </c>
+      <c r="CF6">
+        <v>0.89468000000000003</v>
+      </c>
+      <c r="CG6">
+        <v>0.92315999999999998</v>
+      </c>
+      <c r="CH6">
+        <v>0.90888000000000002</v>
+      </c>
+      <c r="CI6">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="CJ6">
+        <v>0.90758000000000005</v>
+      </c>
+      <c r="CK6">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="CL6">
+        <v>0.91708000000000001</v>
+      </c>
+      <c r="CM6">
+        <v>0.92393999999999998</v>
+      </c>
+      <c r="CN6">
+        <v>0.92403999999999997</v>
+      </c>
+      <c r="CO6">
+        <v>0.93244000000000005</v>
+      </c>
+      <c r="CP6">
+        <v>0.92181999999999997</v>
+      </c>
+      <c r="CQ6">
+        <v>0.92281999999999997</v>
+      </c>
+      <c r="CR6">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="CS6">
+        <v>0.89959</v>
+      </c>
+      <c r="CT6">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="CU6">
+        <v>0.92157999999999995</v>
+      </c>
+      <c r="CV6">
+        <v>0.92098000000000002</v>
+      </c>
+      <c r="CW6">
+        <v>0.91914500000000021</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.91327999999999998</v>
-      </c>
-      <c r="B5">
-        <v>0.92888000000000004</v>
-      </c>
-      <c r="C5">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.89705999999999997</v>
+      </c>
+      <c r="B7">
+        <v>0.92713999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.92352000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.92223999999999995</v>
+      </c>
+      <c r="E7">
+        <v>0.91241000000000005</v>
+      </c>
+      <c r="F7">
+        <v>0.89685999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.91793999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.92322000000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.91693999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.92808000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="L7">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O7">
+        <v>0.92674000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="Q7">
+        <v>0.92276000000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.92505999999999999</v>
+      </c>
+      <c r="S7">
+        <v>0.91405999999999998</v>
+      </c>
+      <c r="T7">
+        <v>0.91052</v>
+      </c>
+      <c r="U7">
+        <v>0.89336000000000004</v>
+      </c>
+      <c r="V7">
+        <v>0.91778000000000004</v>
+      </c>
+      <c r="W7">
+        <v>0.92032000000000003</v>
+      </c>
+      <c r="X7">
+        <v>0.91322000000000003</v>
+      </c>
+      <c r="Y7">
+        <v>0.9012</v>
+      </c>
+      <c r="Z7">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="AA7">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="AB7">
+        <v>0.92376000000000003</v>
+      </c>
+      <c r="AC7">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="AD7">
+        <v>0.93666000000000005</v>
+      </c>
+      <c r="AE7">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="AF7">
+        <v>0.91918</v>
+      </c>
+      <c r="AG7">
+        <v>0.92171999999999998</v>
+      </c>
+      <c r="AH7">
+        <v>0.92681999999999998</v>
+      </c>
+      <c r="AI7">
+        <v>0.92327999999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>0.92834000000000005</v>
+      </c>
+      <c r="AK7">
+        <v>0.91968000000000005</v>
+      </c>
+      <c r="AL7">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="AM7">
+        <v>0.92015999999999998</v>
+      </c>
+      <c r="AN7">
+        <v>0.91513</v>
+      </c>
+      <c r="AO7">
+        <v>0.92057999999999995</v>
+      </c>
+      <c r="AP7">
+        <v>0.93015999999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="AR7">
+        <v>0.90054000000000001</v>
+      </c>
+      <c r="AS7">
+        <v>0.93535999999999997</v>
+      </c>
+      <c r="AT7">
+        <v>0.92223999999999995</v>
+      </c>
+      <c r="AU7">
+        <v>0.91935999999999996</v>
+      </c>
+      <c r="AV7">
+        <v>0.91124000000000005</v>
+      </c>
+      <c r="AW7">
+        <v>0.91925999999999997</v>
+      </c>
+      <c r="AX7">
+        <v>0.93545999999999996</v>
+      </c>
+      <c r="AY7">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="AZ7">
+        <v>0.93354000000000004</v>
+      </c>
+      <c r="BA7">
+        <v>0.92703000000000002</v>
+      </c>
+      <c r="BB7">
+        <v>0.91786000000000001</v>
+      </c>
+      <c r="BC7">
+        <v>0.9194</v>
+      </c>
+      <c r="BD7">
+        <v>0.91127999999999998</v>
+      </c>
+      <c r="BE7">
+        <v>0.91037999999999997</v>
+      </c>
+      <c r="BF7">
+        <v>0.92456000000000005</v>
+      </c>
+      <c r="BG7">
+        <v>0.91127999999999998</v>
+      </c>
+      <c r="BH7">
+        <v>0.90258000000000005</v>
+      </c>
+      <c r="BI7">
+        <v>0.93015999999999999</v>
+      </c>
+      <c r="BJ7">
+        <v>0.90866000000000002</v>
+      </c>
+      <c r="BK7">
+        <v>0.93647999999999998</v>
+      </c>
+      <c r="BL7">
+        <v>0.92554000000000003</v>
+      </c>
+      <c r="BM7">
+        <v>0.92642000000000002</v>
+      </c>
+      <c r="BN7">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="BO7">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="BP7">
+        <v>0.90278000000000003</v>
+      </c>
+      <c r="BQ7">
+        <v>0.91139000000000003</v>
+      </c>
+      <c r="BR7">
+        <v>0.93374000000000001</v>
+      </c>
+      <c r="BS7">
+        <v>0.92891999999999997</v>
+      </c>
+      <c r="BT7">
+        <v>0.92134000000000005</v>
+      </c>
+      <c r="BU7">
+        <v>0.91466000000000003</v>
+      </c>
+      <c r="BV7">
+        <v>0.92998000000000003</v>
+      </c>
+      <c r="BW7">
+        <v>0.9194</v>
+      </c>
+      <c r="BX7">
+        <v>0.90593999999999997</v>
+      </c>
+      <c r="BY7">
+        <v>0.91544000000000003</v>
+      </c>
+      <c r="BZ7">
+        <v>0.91664000000000001</v>
+      </c>
+      <c r="CA7">
+        <v>0.91012000000000004</v>
+      </c>
+      <c r="CB7">
+        <v>0.92208000000000001</v>
+      </c>
+      <c r="CC7">
+        <v>0.90593999999999997</v>
+      </c>
+      <c r="CD7">
+        <v>0.92542000000000002</v>
+      </c>
+      <c r="CE7">
+        <v>0.91876000000000002</v>
+      </c>
+      <c r="CF7">
+        <v>0.92517000000000005</v>
+      </c>
+      <c r="CG7">
+        <v>0.93367999999999995</v>
+      </c>
+      <c r="CH7">
+        <v>0.92315999999999998</v>
+      </c>
+      <c r="CI7">
+        <v>0.94084000000000001</v>
+      </c>
+      <c r="CJ7">
+        <v>0.92715999999999998</v>
+      </c>
+      <c r="CK7">
+        <v>0.92081000000000002</v>
+      </c>
+      <c r="CL7">
+        <v>0.92083999999999999</v>
+      </c>
+      <c r="CM7">
+        <v>0.92154000000000003</v>
+      </c>
+      <c r="CN7">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="CO7">
+        <v>0.90864</v>
+      </c>
+      <c r="CP7">
+        <v>0.93022000000000005</v>
+      </c>
+      <c r="CQ7">
+        <v>0.90788000000000002</v>
+      </c>
+      <c r="CR7">
+        <v>0.91861999999999999</v>
+      </c>
+      <c r="CS7">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="CT7">
+        <v>0.91469</v>
+      </c>
+      <c r="CU7">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="CV7">
+        <v>0.91622000000000003</v>
+      </c>
+      <c r="CW7">
+        <v>0.91962949999999988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.91624000000000005</v>
+      </c>
+      <c r="B8">
+        <v>0.91591999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.92276000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.92418</v>
+      </c>
+      <c r="E8">
+        <v>0.93062</v>
+      </c>
+      <c r="F8">
+        <v>0.92035999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.91368000000000005</v>
+      </c>
+      <c r="H8">
+        <v>0.91246000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.90846000000000005</v>
+      </c>
+      <c r="J8">
+        <v>0.91208</v>
+      </c>
+      <c r="K8">
+        <v>0.91624000000000005</v>
+      </c>
+      <c r="L8">
+        <v>0.91505999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.90903</v>
+      </c>
+      <c r="N8">
+        <v>0.92252000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.91554000000000002</v>
+      </c>
+      <c r="P8">
+        <v>0.91893999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>0.92252000000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.91491999999999996</v>
+      </c>
+      <c r="S8">
+        <v>0.90273999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.90802000000000005</v>
+      </c>
+      <c r="U8">
+        <v>0.91137000000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.92822000000000005</v>
+      </c>
+      <c r="W8">
+        <v>0.92266000000000004</v>
+      </c>
+      <c r="X8">
+        <v>0.91961999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="Z8">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>0.90791999999999995</v>
+      </c>
+      <c r="AB8">
+        <v>0.92186000000000001</v>
+      </c>
+      <c r="AC8">
+        <v>0.91771999999999998</v>
+      </c>
+      <c r="AD8">
+        <v>0.92076999999999998</v>
+      </c>
+      <c r="AE8">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="AF8">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="AG8">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="AH8">
+        <v>0.9214</v>
+      </c>
+      <c r="AI8">
+        <v>0.91969999999999996</v>
+      </c>
+      <c r="AJ8">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="AK8">
+        <v>0.92171999999999998</v>
+      </c>
+      <c r="AL8">
+        <v>0.9143</v>
+      </c>
+      <c r="AM8">
+        <v>0.90151000000000003</v>
+      </c>
+      <c r="AN8">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="AO8">
+        <v>0.91891999999999996</v>
+      </c>
+      <c r="AP8">
+        <v>0.92467999999999995</v>
+      </c>
+      <c r="AQ8">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="AR8">
+        <v>0.91786000000000001</v>
+      </c>
+      <c r="AS8">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="AT8">
+        <v>0.92444000000000004</v>
+      </c>
+      <c r="AU8">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="AV8">
+        <v>0.92034000000000005</v>
+      </c>
+      <c r="AW8">
+        <v>0.92276000000000002</v>
+      </c>
+      <c r="AX8">
+        <v>0.91417999999999999</v>
+      </c>
+      <c r="AY8">
+        <v>0.91317999999999999</v>
+      </c>
+      <c r="AZ8">
+        <v>0.89771999999999996</v>
+      </c>
+      <c r="BA8">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="BB8">
+        <v>0.92845999999999995</v>
+      </c>
+      <c r="BC8">
+        <v>0.90771999999999997</v>
+      </c>
+      <c r="BD8">
+        <v>0.91357999999999995</v>
+      </c>
+      <c r="BE8">
+        <v>0.91152</v>
+      </c>
+      <c r="BF8">
+        <v>0.90717000000000003</v>
+      </c>
+      <c r="BG8">
+        <v>0.9244</v>
+      </c>
+      <c r="BH8">
+        <v>0.91034000000000004</v>
+      </c>
+      <c r="BI8">
+        <v>0.91483000000000003</v>
+      </c>
+      <c r="BJ8">
+        <v>0.92403999999999997</v>
+      </c>
+      <c r="BK8">
+        <v>0.92367999999999995</v>
+      </c>
+      <c r="BL8">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="BM8">
+        <v>0.91561999999999999</v>
+      </c>
+      <c r="BN8">
+        <v>0.90842999999999996</v>
+      </c>
+      <c r="BO8">
+        <v>0.91435999999999995</v>
+      </c>
+      <c r="BP8">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="BQ8">
+        <v>0.92934000000000005</v>
+      </c>
+      <c r="BR8">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="BS8">
+        <v>0.90844000000000003</v>
+      </c>
+      <c r="BT8">
+        <v>0.92018</v>
+      </c>
+      <c r="BU8">
+        <v>0.91642000000000001</v>
+      </c>
+      <c r="BV8">
+        <v>0.91308999999999996</v>
+      </c>
+      <c r="BW8">
+        <v>0.92037999999999998</v>
+      </c>
+      <c r="BX8">
+        <v>0.92247999999999997</v>
+      </c>
+      <c r="BY8">
+        <v>0.92832000000000003</v>
+      </c>
+      <c r="BZ8">
+        <v>0.92142000000000002</v>
+      </c>
+      <c r="CA8">
+        <v>0.91071999999999997</v>
+      </c>
+      <c r="CB8">
+        <v>0.91371999999999998</v>
+      </c>
+      <c r="CC8">
+        <v>0.92035999999999996</v>
+      </c>
+      <c r="CD8">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="CE8">
+        <v>0.90708</v>
+      </c>
+      <c r="CF8">
+        <v>0.91429000000000005</v>
+      </c>
+      <c r="CG8">
+        <v>0.92083999999999999</v>
+      </c>
+      <c r="CH8">
+        <v>0.91591999999999996</v>
+      </c>
+      <c r="CI8">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="CJ8">
+        <v>0.92627999999999999</v>
+      </c>
+      <c r="CK8">
+        <v>0.90973999999999999</v>
+      </c>
+      <c r="CL8">
+        <v>0.89812999999999998</v>
+      </c>
+      <c r="CM8">
+        <v>0.93408999999999998</v>
+      </c>
+      <c r="CN8">
+        <v>0.91781999999999997</v>
+      </c>
+      <c r="CO8">
+        <v>0.92547999999999997</v>
+      </c>
+      <c r="CP8">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="CQ8">
+        <v>0.92818000000000001</v>
+      </c>
+      <c r="CR8">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="CS8">
+        <v>0.91778000000000004</v>
+      </c>
+      <c r="CT8">
+        <v>0.92376000000000003</v>
+      </c>
+      <c r="CU8">
+        <v>0.92227999999999999</v>
+      </c>
+      <c r="CV8">
+        <v>0.92308000000000001</v>
+      </c>
+      <c r="CW8">
+        <v>0.91728409999999949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.92988000000000004</v>
+      </c>
+      <c r="B9">
+        <v>0.91866000000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.91774</v>
+      </c>
+      <c r="D9">
+        <v>0.91756000000000004</v>
+      </c>
+      <c r="E9">
+        <v>0.91105999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.91576000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0.92408000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.90917999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.9153</v>
+      </c>
+      <c r="L9">
+        <v>0.91483999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.90451000000000004</v>
+      </c>
+      <c r="N9">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.91900999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.89958000000000005</v>
+      </c>
+      <c r="Q9">
+        <v>0.92186000000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="S9">
+        <v>0.90676000000000001</v>
+      </c>
+      <c r="T9">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="U9">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="V9">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="X9">
+        <v>0.91862999999999995</v>
+      </c>
+      <c r="Y9">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="Z9">
+        <v>0.92222000000000004</v>
+      </c>
+      <c r="AA9">
+        <v>0.92867999999999995</v>
+      </c>
+      <c r="AB9">
+        <v>0.93342000000000003</v>
+      </c>
+      <c r="AC9">
+        <v>0.92291999999999996</v>
+      </c>
+      <c r="AD9">
+        <v>0.92498000000000002</v>
+      </c>
+      <c r="AE9">
+        <v>0.90773999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.91947999999999996</v>
+      </c>
+      <c r="AG9">
+        <v>0.92781999999999998</v>
+      </c>
+      <c r="AH9">
+        <v>0.93342000000000003</v>
+      </c>
+      <c r="AI9">
+        <v>0.92201999999999995</v>
+      </c>
+      <c r="AJ9">
+        <v>0.92706</v>
+      </c>
+      <c r="AK9">
+        <v>0.92856000000000005</v>
+      </c>
+      <c r="AL9">
+        <v>0.91996</v>
+      </c>
+      <c r="AM9">
+        <v>0.91471999999999998</v>
+      </c>
+      <c r="AN9">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="AO9">
+        <v>0.93056000000000005</v>
+      </c>
+      <c r="AP9">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="AQ9">
+        <v>0.92235999999999996</v>
+      </c>
+      <c r="AR9">
+        <v>0.92303999999999997</v>
+      </c>
+      <c r="AS9">
+        <v>0.9325</v>
+      </c>
+      <c r="AT9">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="AU9">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="AV9">
+        <v>0.92911999999999995</v>
+      </c>
+      <c r="AW9">
+        <v>0.91444000000000003</v>
+      </c>
+      <c r="AX9">
+        <v>0.91624000000000005</v>
+      </c>
+      <c r="AY9">
+        <v>0.91851000000000005</v>
+      </c>
+      <c r="AZ9">
+        <v>0.91922999999999999</v>
+      </c>
+      <c r="BA9">
+        <v>0.91852</v>
+      </c>
+      <c r="BB9">
+        <v>0.92557999999999996</v>
+      </c>
+      <c r="BC9">
+        <v>0.92552000000000001</v>
+      </c>
+      <c r="BD9">
+        <v>0.92605999999999999</v>
+      </c>
+      <c r="BE9">
+        <v>0.93106</v>
+      </c>
+      <c r="BF9">
+        <v>0.9093</v>
+      </c>
+      <c r="BG9">
+        <v>0.91925999999999997</v>
+      </c>
+      <c r="BH9">
+        <v>0.92396</v>
+      </c>
+      <c r="BI9">
+        <v>0.92784</v>
+      </c>
+      <c r="BJ9">
+        <v>0.92598000000000003</v>
+      </c>
+      <c r="BK9">
+        <v>0.92588000000000004</v>
+      </c>
+      <c r="BL9">
+        <v>0.91835999999999995</v>
+      </c>
+      <c r="BM9">
+        <v>0.90852999999999995</v>
+      </c>
+      <c r="BN9">
+        <v>0.91471999999999998</v>
+      </c>
+      <c r="BO9">
+        <v>0.91754000000000002</v>
+      </c>
+      <c r="BP9">
+        <v>0.92937999999999998</v>
+      </c>
+      <c r="BQ9">
+        <v>0.92334000000000005</v>
+      </c>
+      <c r="BR9">
+        <v>0.91983999999999999</v>
+      </c>
+      <c r="BS9">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="BT9">
+        <v>0.91944000000000004</v>
+      </c>
+      <c r="BU9">
+        <v>0.92845999999999995</v>
+      </c>
+      <c r="BV9">
+        <v>0.92811999999999995</v>
+      </c>
+      <c r="BW9">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="BX9">
+        <v>0.92018</v>
+      </c>
+      <c r="BY9">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="BZ9">
+        <v>0.91488000000000003</v>
+      </c>
+      <c r="CA9">
+        <v>0.91761999999999999</v>
+      </c>
+      <c r="CB9">
+        <v>0.91905999999999999</v>
+      </c>
+      <c r="CC9">
+        <v>0.90546000000000004</v>
+      </c>
+      <c r="CD9">
+        <v>0.89583999999999997</v>
+      </c>
+      <c r="CE9">
+        <v>0.92569000000000001</v>
+      </c>
+      <c r="CF9">
+        <v>0.91134000000000004</v>
+      </c>
+      <c r="CG9">
+        <v>0.91703999999999997</v>
+      </c>
+      <c r="CH9">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="CI9">
+        <v>0.91442000000000001</v>
+      </c>
+      <c r="CJ9">
+        <v>0.91293999999999997</v>
+      </c>
+      <c r="CK9">
+        <v>0.91324000000000005</v>
+      </c>
+      <c r="CL9">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="CM9">
+        <v>0.91642999999999997</v>
+      </c>
+      <c r="CN9">
+        <v>0.92418</v>
+      </c>
+      <c r="CO9">
+        <v>0.91105999999999998</v>
+      </c>
+      <c r="CP9">
+        <v>0.90913999999999995</v>
+      </c>
+      <c r="CQ9">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="CR9">
+        <v>0.90637999999999996</v>
+      </c>
+      <c r="CS9">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="CT9">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="CU9">
+        <v>0.92837999999999998</v>
+      </c>
+      <c r="CV9">
         <v>0.92108000000000001</v>
       </c>
+      <c r="CW9">
+        <v>0.9189156000000005</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="B6">
-        <v>0.91998000000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.92399000000000009</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.92708000000000002</v>
+      </c>
+      <c r="B10">
+        <v>0.92688000000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.90824000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.91576000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.91913999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.92086000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.93084</v>
+      </c>
+      <c r="J10">
+        <v>0.93362000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.91573000000000004</v>
+      </c>
+      <c r="L10">
+        <v>0.91124000000000005</v>
+      </c>
+      <c r="M10">
+        <v>0.91712000000000005</v>
+      </c>
+      <c r="N10">
+        <v>0.91586000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.91003999999999996</v>
+      </c>
+      <c r="P10">
+        <v>0.91256999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.92018</v>
+      </c>
+      <c r="R10">
+        <v>0.91576000000000002</v>
+      </c>
+      <c r="S10">
+        <v>0.91793999999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.91288000000000002</v>
+      </c>
+      <c r="U10">
+        <v>0.91566000000000003</v>
+      </c>
+      <c r="V10">
+        <v>0.91527000000000003</v>
+      </c>
+      <c r="W10">
+        <v>0.92054000000000002</v>
+      </c>
+      <c r="X10">
+        <v>0.91901999999999995</v>
+      </c>
+      <c r="Y10">
+        <v>0.92523999999999995</v>
+      </c>
+      <c r="Z10">
+        <v>0.93325999999999998</v>
+      </c>
+      <c r="AA10">
+        <v>0.91498999999999997</v>
+      </c>
+      <c r="AB10">
+        <v>0.91652999999999996</v>
+      </c>
+      <c r="AC10">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="AD10">
+        <v>0.92398000000000002</v>
+      </c>
+      <c r="AE10">
+        <v>0.92664000000000002</v>
+      </c>
+      <c r="AF10">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="AG10">
+        <v>0.92444000000000004</v>
+      </c>
+      <c r="AH10">
+        <v>0.91722000000000004</v>
+      </c>
+      <c r="AI10">
+        <v>0.92696000000000001</v>
+      </c>
+      <c r="AJ10">
+        <v>0.92178000000000004</v>
+      </c>
+      <c r="AK10">
+        <v>0.91383999999999999</v>
+      </c>
+      <c r="AL10">
+        <v>0.92767999999999995</v>
+      </c>
+      <c r="AM10">
+        <v>0.91354999999999997</v>
+      </c>
+      <c r="AN10">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="AO10">
+        <v>0.92508000000000001</v>
+      </c>
+      <c r="AP10">
+        <v>0.90559000000000001</v>
+      </c>
+      <c r="AQ10">
+        <v>0.91993999999999998</v>
+      </c>
+      <c r="AR10">
+        <v>0.93196000000000001</v>
+      </c>
+      <c r="AS10">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="AT10">
+        <v>0.90908</v>
+      </c>
+      <c r="AU10">
+        <v>0.93033999999999994</v>
+      </c>
+      <c r="AV10">
+        <v>0.91203999999999996</v>
+      </c>
+      <c r="AW10">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AX10">
+        <v>0.92286000000000001</v>
+      </c>
+      <c r="AY10">
+        <v>0.89595999999999998</v>
+      </c>
+      <c r="AZ10">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="BA10">
+        <v>0.91595000000000004</v>
+      </c>
+      <c r="BB10">
+        <v>0.92998000000000003</v>
+      </c>
+      <c r="BC10">
+        <v>0.93013999999999997</v>
+      </c>
+      <c r="BD10">
+        <v>0.92274999999999996</v>
+      </c>
+      <c r="BE10">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="BF10">
+        <v>0.90595000000000003</v>
+      </c>
+      <c r="BG10">
+        <v>0.91774</v>
+      </c>
+      <c r="BH10">
+        <v>0.92856000000000005</v>
+      </c>
+      <c r="BI10">
+        <v>0.92774000000000001</v>
+      </c>
+      <c r="BJ10">
+        <v>0.92344000000000004</v>
+      </c>
+      <c r="BK10">
+        <v>0.91834000000000005</v>
+      </c>
+      <c r="BL10">
+        <v>0.90234000000000003</v>
+      </c>
+      <c r="BM10">
+        <v>0.92037999999999998</v>
+      </c>
+      <c r="BN10">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="BO10">
+        <v>0.90935999999999995</v>
+      </c>
+      <c r="BP10">
+        <v>0.91527999999999998</v>
+      </c>
+      <c r="BQ10">
+        <v>0.92867999999999995</v>
+      </c>
+      <c r="BR10">
+        <v>0.91413999999999995</v>
+      </c>
+      <c r="BS10">
+        <v>0.92418999999999996</v>
+      </c>
+      <c r="BT10">
+        <v>0.92015999999999998</v>
+      </c>
+      <c r="BU10">
+        <v>0.91535999999999995</v>
+      </c>
+      <c r="BV10">
+        <v>0.92317000000000005</v>
+      </c>
+      <c r="BW10">
+        <v>0.91786000000000001</v>
+      </c>
+      <c r="BX10">
+        <v>0.9194</v>
+      </c>
+      <c r="BY10">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="BZ10">
+        <v>0.91891999999999996</v>
+      </c>
+      <c r="CA10">
+        <v>0.91124000000000005</v>
+      </c>
+      <c r="CB10">
+        <v>0.92434000000000005</v>
+      </c>
+      <c r="CC10">
+        <v>0.92035999999999996</v>
+      </c>
+      <c r="CD10">
+        <v>0.91793999999999998</v>
+      </c>
+      <c r="CE10">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="CF10">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="CG10">
+        <v>0.9224</v>
+      </c>
+      <c r="CH10">
+        <v>0.92017000000000004</v>
+      </c>
+      <c r="CI10">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="CJ10">
+        <v>0.91657999999999995</v>
+      </c>
+      <c r="CK10">
+        <v>0.91693999999999998</v>
+      </c>
+      <c r="CL10">
+        <v>0.92503999999999997</v>
+      </c>
+      <c r="CM10">
+        <v>0.93735999999999997</v>
+      </c>
+      <c r="CN10">
+        <v>0.91537999999999997</v>
+      </c>
+      <c r="CO10">
+        <v>0.92515999999999998</v>
+      </c>
+      <c r="CP10">
+        <v>0.91751000000000005</v>
+      </c>
+      <c r="CQ10">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="CR10">
+        <v>0.91878000000000004</v>
+      </c>
+      <c r="CS10">
+        <v>0.92293000000000003</v>
+      </c>
+      <c r="CT10">
+        <v>0.92196</v>
+      </c>
+      <c r="CU10">
+        <v>0.92267999999999994</v>
+      </c>
+      <c r="CV10">
+        <v>0.91581999999999997</v>
+      </c>
+      <c r="CW10">
+        <v>0.91935409999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.91790000000000005</v>
-      </c>
-      <c r="B7">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.91405999999999998</v>
+      </c>
+      <c r="B11">
+        <v>0.91481000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.92276000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.89993000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.92242000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.91476000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.92427999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.90925</v>
+      </c>
+      <c r="K11">
+        <v>0.91635999999999995</v>
+      </c>
+      <c r="L11">
+        <v>0.91232999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.91768000000000005</v>
+      </c>
+      <c r="N11">
+        <v>0.90105000000000002</v>
+      </c>
+      <c r="O11">
+        <v>0.92447999999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.92115999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="R11">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="S11">
+        <v>0.92567999999999995</v>
+      </c>
+      <c r="T11">
+        <v>0.90493999999999997</v>
+      </c>
+      <c r="U11">
+        <v>0.92866000000000004</v>
+      </c>
+      <c r="V11">
+        <v>0.91222000000000003</v>
+      </c>
+      <c r="W11">
+        <v>0.91093999999999997</v>
+      </c>
+      <c r="X11">
+        <v>0.92132000000000003</v>
+      </c>
+      <c r="Y11">
+        <v>0.92147999999999997</v>
+      </c>
+      <c r="Z11">
+        <v>0.91408999999999996</v>
+      </c>
+      <c r="AA11">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="AB11">
+        <v>0.91293999999999997</v>
+      </c>
+      <c r="AC11">
+        <v>0.92112000000000005</v>
+      </c>
+      <c r="AD11">
+        <v>0.92181999999999997</v>
+      </c>
+      <c r="AE11">
+        <v>0.92310999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>0.92432000000000003</v>
+      </c>
+      <c r="AG11">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="AH11">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>0.91466000000000003</v>
+      </c>
+      <c r="AJ11">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="AK11">
+        <v>0.92398000000000002</v>
+      </c>
+      <c r="AL11">
+        <v>0.91966000000000003</v>
+      </c>
+      <c r="AM11">
+        <v>0.92088000000000003</v>
+      </c>
+      <c r="AN11">
+        <v>0.90517999999999998</v>
+      </c>
+      <c r="AO11">
+        <v>0.91486000000000001</v>
+      </c>
+      <c r="AP11">
+        <v>0.90356999999999998</v>
+      </c>
+      <c r="AQ11">
+        <v>0.90935999999999995</v>
+      </c>
+      <c r="AR11">
+        <v>0.92474000000000001</v>
+      </c>
+      <c r="AS11">
+        <v>0.92057999999999995</v>
+      </c>
+      <c r="AT11">
+        <v>0.91601999999999995</v>
+      </c>
+      <c r="AU11">
+        <v>0.93447999999999998</v>
+      </c>
+      <c r="AV11">
+        <v>0.92571999999999999</v>
+      </c>
+      <c r="AW11">
         <v>0.92534000000000005</v>
       </c>
-      <c r="C7">
-        <v>0.92162000000000011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.9163</v>
-      </c>
-      <c r="B8">
-        <v>0.91522000000000003</v>
-      </c>
-      <c r="C8">
-        <v>0.91576000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.92766000000000004</v>
-      </c>
-      <c r="B9">
-        <v>0.91620000000000001</v>
-      </c>
-      <c r="C9">
-        <v>0.92193000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.91998000000000002</v>
-      </c>
-      <c r="B10">
-        <v>0.92413999999999996</v>
-      </c>
-      <c r="C10">
-        <v>0.92205999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.93084</v>
-      </c>
-      <c r="B11">
-        <v>0.91564999999999996</v>
-      </c>
-      <c r="C11">
-        <v>0.92324499999999998</v>
+      <c r="AX11">
+        <v>0.90756999999999999</v>
+      </c>
+      <c r="AY11">
+        <v>0.90425</v>
+      </c>
+      <c r="AZ11">
+        <v>0.94513999999999998</v>
+      </c>
+      <c r="BA11">
+        <v>0.91671999999999998</v>
+      </c>
+      <c r="BB11">
+        <v>0.92078000000000004</v>
+      </c>
+      <c r="BC11">
+        <v>0.90861000000000003</v>
+      </c>
+      <c r="BD11">
+        <v>0.91888000000000003</v>
+      </c>
+      <c r="BE11">
+        <v>0.92628999999999995</v>
+      </c>
+      <c r="BF11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="BG11">
+        <v>0.92301999999999995</v>
+      </c>
+      <c r="BH11">
+        <v>0.91488000000000003</v>
+      </c>
+      <c r="BI11">
+        <v>0.91815999999999998</v>
+      </c>
+      <c r="BJ11">
+        <v>0.92264000000000002</v>
+      </c>
+      <c r="BK11">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="BL11">
+        <v>0.93037999999999998</v>
+      </c>
+      <c r="BM11">
+        <v>0.92781999999999998</v>
+      </c>
+      <c r="BN11">
+        <v>0.90166000000000002</v>
+      </c>
+      <c r="BO11">
+        <v>0.91254999999999997</v>
+      </c>
+      <c r="BP11">
+        <v>0.90463000000000005</v>
+      </c>
+      <c r="BQ11">
+        <v>0.92007000000000005</v>
+      </c>
+      <c r="BR11">
+        <v>0.92547000000000001</v>
+      </c>
+      <c r="BS11">
+        <v>0.91742000000000001</v>
+      </c>
+      <c r="BT11">
+        <v>0.89788999999999997</v>
+      </c>
+      <c r="BU11">
+        <v>0.90993999999999997</v>
+      </c>
+      <c r="BV11">
+        <v>0.91561999999999999</v>
+      </c>
+      <c r="BW11">
+        <v>0.91637000000000002</v>
+      </c>
+      <c r="BX11">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="BY11">
+        <v>0.91956000000000004</v>
+      </c>
+      <c r="BZ11">
+        <v>0.92296</v>
+      </c>
+      <c r="CA11">
+        <v>0.92691999999999997</v>
+      </c>
+      <c r="CB11">
+        <v>0.91386000000000001</v>
+      </c>
+      <c r="CC11">
+        <v>0.90993999999999997</v>
+      </c>
+      <c r="CD11">
+        <v>0.91961999999999999</v>
+      </c>
+      <c r="CE11">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="CF11">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="CG11">
+        <v>0.91603999999999997</v>
+      </c>
+      <c r="CH11">
+        <v>0.90815000000000001</v>
+      </c>
+      <c r="CI11">
+        <v>0.92181999999999997</v>
+      </c>
+      <c r="CJ11">
+        <v>0.91737999999999997</v>
+      </c>
+      <c r="CK11">
+        <v>0.93286000000000002</v>
+      </c>
+      <c r="CL11">
+        <v>0.92588000000000004</v>
+      </c>
+      <c r="CM11">
+        <v>0.92708000000000002</v>
+      </c>
+      <c r="CN11">
+        <v>0.92384999999999995</v>
+      </c>
+      <c r="CO11">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="CP11">
+        <v>0.91434000000000004</v>
+      </c>
+      <c r="CQ11">
+        <v>0.92225999999999997</v>
+      </c>
+      <c r="CR11">
+        <v>0.93171999999999999</v>
+      </c>
+      <c r="CS11">
+        <v>0.93001999999999996</v>
+      </c>
+      <c r="CT11">
+        <v>0.92978000000000005</v>
+      </c>
+      <c r="CU11">
+        <v>0.91776000000000002</v>
+      </c>
+      <c r="CV11">
+        <v>0.92608000000000001</v>
+      </c>
+      <c r="CW11">
+        <v>0.91869939999999994</v>
       </c>
     </row>
   </sheetData>
